--- a/day_21_06_09_25/tabela_przestawna.xlsx
+++ b/day_21_06_09_25/tabela_przestawna.xlsx
@@ -435,12 +435,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Produkt</t>
+          <t>Produkr</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Sprzedaż</t>
+          <t>Sprzedaj</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Odzież</t>
+          <t>Odzieź</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3200</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/day_21_06_09_25/tabela_przestawna.xlsx
+++ b/day_21_06_09_25/tabela_przestawna.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Produkr</t>
+          <t>Produkt</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Odzieź</t>
+          <t>Odzież</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,14 +555,80 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Kategoria</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Koszula</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Kurtka</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Telefon</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Elektronika</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Odzież</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>